--- a/考研笔记/考研题目记录/英语二各题型分值记录表2010-2018.xlsx
+++ b/考研笔记/考研题目记录/英语二各题型分值记录表2010-2018.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8B5E71-0251-4F88-B4BE-E910260BEA72}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D78FA7-7CC6-4A12-AEF1-4F34C72DB2FC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -654,6 +654,9 @@
       <c r="A6">
         <v>2014</v>
       </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
       <c r="C6">
         <v>4</v>
       </c>
@@ -688,11 +691,11 @@
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">

--- a/考研笔记/考研题目记录/英语二各题型分值记录表2010-2018.xlsx
+++ b/考研笔记/考研题目记录/英语二各题型分值记录表2010-2018.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D78FA7-7CC6-4A12-AEF1-4F34C72DB2FC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1163A621-0B35-4047-BB3E-2EEA24D591E2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8918" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,16 +400,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.9296875" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="16.19921875" customWidth="1"/>
   </cols>
@@ -854,6 +854,12 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="N11">
+        <f>AVERAGE(N2:N8)</f>
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
